--- a/outputs-HGR-r202-archive/f__Rikenellaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Rikenellaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,87 +1023,87 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2873.fa</t>
+          <t>even_MAG-GUT32169.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3823684408942405</v>
+        <v>0.0008867507376034272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05066754601169478</v>
+        <v>0.9966713694228228</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0026530294132064</v>
+        <v>6.181154470585442e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5643109836808583</v>
+        <v>0.002435698685103124</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5643109836808583</v>
+        <v>0.9966713694228228</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Alistipes_A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Alistipes_A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32169.fa</t>
+          <t>even_MAG-GUT32170.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0008867507376034272</v>
+        <v>0.9978747167881407</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9966713694228228</v>
+        <v>0.0003722337057029152</v>
       </c>
       <c r="D20" t="n">
-        <v>6.181154470585442e-06</v>
+        <v>2.950340106616069e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002435698685103124</v>
+        <v>0.00175009916604986</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9966713694228228</v>
+        <v>0.9978747167881407</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32170.fa</t>
+          <t>even_MAG-GUT33270.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9978747167881407</v>
+        <v>0.9991375423621531</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003722337057029152</v>
+        <v>2.878543731572954e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>2.950340106616069e-06</v>
+        <v>5.129009012018885e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00175009916604986</v>
+        <v>0.0008544500851033124</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9978747167881407</v>
+        <v>0.9991375423621531</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1119,23 +1119,23 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33270.fa</t>
+          <t>even_MAG-GUT35747.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9991375423621531</v>
+        <v>0.999423795124171</v>
       </c>
       <c r="C22" t="n">
-        <v>2.878543731572954e-06</v>
+        <v>2.457356689677777e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>5.129009012018885e-06</v>
+        <v>1.274863834755082e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0008544500851033124</v>
+        <v>0.000538882670584712</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9991375423621531</v>
+        <v>0.999423795124171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1151,215 +1151,215 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35747.fa</t>
+          <t>even_MAG-GUT36799.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999423795124171</v>
+        <v>0.2983303820062201</v>
       </c>
       <c r="C23" t="n">
-        <v>2.457356689677777e-05</v>
+        <v>0.08142434792250215</v>
       </c>
       <c r="D23" t="n">
-        <v>1.274863834755082e-05</v>
+        <v>0.001170443280636327</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000538882670584712</v>
+        <v>0.6190748267906415</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999423795124171</v>
+        <v>0.6190748267906415</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Tidjanibacter(reject)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36772.fa</t>
+          <t>even_MAG-GUT36814.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1608217319994478</v>
+        <v>0.003940121804126789</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03212661770547848</v>
+        <v>0.995231250217124</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002307434736747378</v>
+        <v>8.230143289096884e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8047442155583263</v>
+        <v>0.0008203978354600465</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8047442155583263</v>
+        <v>0.995231250217124</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Alistipes_A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Alistipes_A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36799.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2983303820062201</v>
+        <v>0.9994587068663026</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08142434792250215</v>
+        <v>7.280887587232861e-07</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001170443280636327</v>
+        <v>4.318334236153798e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6190748267906415</v>
+        <v>0.0005362467107025425</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6190748267906415</v>
+        <v>0.9994587068663026</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36814.fa</t>
+          <t>even_MAG-GUT71577.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003940121804126789</v>
+        <v>0.241591965006396</v>
       </c>
       <c r="C26" t="n">
-        <v>0.995231250217124</v>
+        <v>0.068499069315977</v>
       </c>
       <c r="D26" t="n">
-        <v>8.230143289096884e-06</v>
+        <v>0.0007649173506069509</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0008203978354600465</v>
+        <v>0.68914404832702</v>
       </c>
       <c r="F26" t="n">
-        <v>0.995231250217124</v>
+        <v>0.68914404832702</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47330.fa</t>
+          <t>even_MAG-GUT73862.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6470998969152633</v>
+        <v>0.1792098804500595</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2815404819101013</v>
+        <v>0.03924418613519028</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0002563048717915558</v>
+        <v>0.0002040364861754928</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07110331630284362</v>
+        <v>0.7813418969285747</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6470998969152633</v>
+        <v>0.7813418969285747</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>g__Alistipes(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT77597.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9994587068663026</v>
+        <v>0.1437704016804536</v>
       </c>
       <c r="C28" t="n">
-        <v>7.280887587232861e-07</v>
+        <v>0.05835022129861947</v>
       </c>
       <c r="D28" t="n">
-        <v>4.318334236153798e-06</v>
+        <v>0.001356228641346905</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0005362467107025425</v>
+        <v>0.7965231483795799</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9994587068663026</v>
+        <v>0.7965231483795799</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54831.fa</t>
+          <t>even_MAG-GUT83643.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.7955409222947224</v>
+        <v>0.9438392777056896</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0006060843638777874</v>
+        <v>0.04067624401589081</v>
       </c>
       <c r="D29" t="n">
-        <v>4.714346561871242e-05</v>
+        <v>2.167846550468247e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2038058498757812</v>
+        <v>0.01548231043186917</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7955409222947224</v>
+        <v>0.9438392777056896</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1375,23 +1375,23 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56345.fa</t>
+          <t>even_MAG-GUT85906.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2686619934806059</v>
+        <v>0.4952464844700538</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006046234310781119</v>
+        <v>0.003531177195427795</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0004646867541367305</v>
+        <v>6.543024525027276e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7248270854544763</v>
+        <v>0.5011569080892682</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7248270854544763</v>
+        <v>0.5011569080892682</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1399,230 +1399,6 @@
         </is>
       </c>
       <c r="H30" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71577.fa</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.241591965006396</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.068499069315977</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0007649173506069509</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.68914404832702</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.68914404832702</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73862.fa</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.1792098804500595</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.03924418613519028</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0002040364861754928</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.7813418969285747</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.7813418969285747</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77597.fa</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.1437704016804536</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.05835022129861947</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.001356228641346905</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.7965231483795799</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.7965231483795799</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77633.fa</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.4076402819992882</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.003436327684561165</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.0001486990170234029</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5887746912991272</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.5887746912991272</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78910.fa</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.2775701779459958</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5772972595633951</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.006561995387378864</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.1385705671032304</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.5772972595633951</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>g__Alistipes_A</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>g__Alistipes_A(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83643.fa</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.9438392777056896</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.04067624401589081</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2.167846550468247e-06</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.01548231043186917</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.9438392777056896</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>g__Alistipes</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>g__Alistipes</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85906.fa</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.4952464844700538</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.003531177195427795</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6.543024525027276e-05</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5011569080892682</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.5011569080892682</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
         <is>
           <t>g__Tidjanibacter(reject)</t>
         </is>
